--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>979063.6502943342</v>
+        <v>976806.6283852516</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>327.7725728859739</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>212.4544848593658</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>113.0310749869919</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>24.08852816170446</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>142.154920674944</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>66.17512620685348</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>54.47555601903385</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>320.797539652425</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>97.64711324991042</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>169.0167291702125</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>226.9736586744963</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>120.6353666620266</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>113.5103646250813</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396191</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>44.18768420362218</v>
+        <v>74.75769145492396</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2008,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2059,7 +2059,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>147.0633545968142</v>
+        <v>73.79299727940864</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249711</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>181.6433327707748</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>113.5103646250812</v>
       </c>
       <c r="F25" t="n">
-        <v>74.75769145492396</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>74.7576914549236</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>36.15999212057531</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="C31" t="n">
-        <v>11.42490606886651</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>85.77388582790067</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>126.0955237083904</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935317</v>
+        <v>13.17495179891206</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102223</v>
+        <v>166.1905658102226</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>51.92762496907567</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430363</v>
+        <v>188.7127700430367</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877636</v>
+        <v>218.492693987764</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172073</v>
+        <v>285.1555829172077</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354224</v>
+        <v>251.0813880354228</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481854</v>
+        <v>285.4667430481858</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006316</v>
+        <v>224.653400100632</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>217.5283980636896</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433886</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3749,13 +3749,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1215.881273373638</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="C2" t="n">
-        <v>846.9187564332267</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D2" t="n">
-        <v>846.9187564332267</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4334,7 +4334,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1992.620445413572</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1602.48111343776</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4422,16 +4422,16 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.2716929833838</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="C4" t="n">
-        <v>359.2716929833838</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="D4" t="n">
-        <v>359.2716929833838</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="E4" t="n">
-        <v>359.2716929833838</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>613.9561811892706</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>613.9561811892706</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>613.9561811892706</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>359.2716929833838</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>359.2716929833838</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>359.2716929833838</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.2716929833838</v>
+        <v>211.6471865296039</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2672.817244390239</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2496.639756704409</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2278.005089676471</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="V5" t="n">
-        <v>2123.618989005894</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="W5" t="n">
-        <v>2123.618989005894</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="X5" t="n">
-        <v>1750.153230744814</v>
+        <v>2024.243304314563</v>
       </c>
       <c r="Y5" t="n">
-        <v>1750.153230744814</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.1154545468207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>257.1154545468207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036446</v>
@@ -4747,28 +4747,28 @@
         <v>698.7120650600563</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600563</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S7" t="n">
-        <v>484.423641878219</v>
+        <v>336.276983312403</v>
       </c>
       <c r="T7" t="n">
-        <v>257.1154545468207</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="U7" t="n">
-        <v>257.1154545468207</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="V7" t="n">
-        <v>257.1154545468207</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="W7" t="n">
-        <v>257.1154545468207</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="X7" t="n">
-        <v>257.1154545468207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>257.1154545468207</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1040.216121848823</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>671.253604908411</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>312.9879063016605</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>312.9879063016605</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>306.0424055524571</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1426.815961912944</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,10 +4890,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.840561024597</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>513.840561024597</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>224.666950679165</v>
       </c>
       <c r="V10" t="n">
-        <v>498.8626623130036</v>
+        <v>224.666950679165</v>
       </c>
       <c r="W10" t="n">
-        <v>498.8626623130036</v>
+        <v>224.666950679165</v>
       </c>
       <c r="X10" t="n">
-        <v>498.8626623130036</v>
+        <v>224.666950679165</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.8626623130036</v>
+        <v>224.666950679165</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1404.507041060941</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2383.057343890769</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
@@ -5118,40 +5118,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839442</v>
+        <v>217.4149401676132</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839442</v>
+        <v>217.4149401676132</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839442</v>
+        <v>217.4149401676132</v>
       </c>
       <c r="E13" t="n">
         <v>95.56103444839442</v>
@@ -5200,7 +5200,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5218,31 +5218,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104707</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862235</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689061</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258587</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.95764238423</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783406</v>
+        <v>909.2731541783436</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413801</v>
+        <v>619.855984141383</v>
       </c>
       <c r="X13" t="n">
-        <v>391.8664332433627</v>
+        <v>619.855984141383</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>399.0634049978529</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>3316.966490094645</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,22 +5385,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>658.8294814682021</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>489.8932985402952</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927028</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N16" t="n">
         <v>1346.796070598116</v>
@@ -5452,34 +5452,34 @@
         <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952186</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.3434661047</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.3434661047</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931527</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.657581931527</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1475.55471505717</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1220.870226851283</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>931.4530568143226</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>703.4635059163053</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>703.4635059163053</v>
+        <v>171.0738540998328</v>
       </c>
     </row>
     <row r="17">
@@ -5492,70 +5492,70 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3831.983903964022</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4226.7582703212</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4685.236472830188</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
         <v>2760.816196754298</v>
@@ -5568,58 +5568,58 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839441</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839441</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839441</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
         <v>344.6708498442063</v>
@@ -5692,10 +5692,10 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
         <v>1674.827124689058</v>
@@ -5707,16 +5707,16 @@
         <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>1089.419261293916</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>800.0020912569551</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>572.0125403589376</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>572.0125403589376</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,67 +5735,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5805,34 +5805,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320242</v>
@@ -5847,22 +5847,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5871,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>508.5026418377231</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>508.5026418377231</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>508.5026418377231</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5923,7 +5923,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1683.034894952358</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1428.350406746471</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>1138.93323670951</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>910.943685811493</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>690.1511066679628</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5978,37 +5978,37 @@
         <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176197</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2628.734306600803</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3175.513123659586</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660289</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6099,7 +6099,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.0738540998329</v>
+        <v>210.2179684131229</v>
       </c>
       <c r="C25" t="n">
-        <v>171.0738540998329</v>
+        <v>210.2179684131229</v>
       </c>
       <c r="D25" t="n">
-        <v>171.0738540998329</v>
+        <v>210.2179684131229</v>
       </c>
       <c r="E25" t="n">
-        <v>171.0738540998329</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6181,16 +6181,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783409</v>
+        <v>909.2731541783407</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413803</v>
+        <v>619.8559841413801</v>
       </c>
       <c r="X25" t="n">
-        <v>391.866433243363</v>
+        <v>391.8664332433626</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0738540998329</v>
+        <v>391.8664332433626</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1076.848340014667</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
         <v>3482.142110232732</v>
@@ -6251,25 +6251,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6279,64 +6279,64 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>301.0224619425391</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>132.0862790146321</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
         <v>95.56103444839442</v>
@@ -6388,7 +6388,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1220.870226851287</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W28" t="n">
-        <v>931.4530568143261</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X28" t="n">
-        <v>703.4635059163088</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y28" t="n">
-        <v>482.6709267727788</v>
+        <v>171.0738540998324</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>357.0540087506643</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>690.8733824405108</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1141.90759568892</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6573,7 +6573,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>719.7238607267858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783402</v>
       </c>
       <c r="W31" t="n">
-        <v>901.3723255570255</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X31" t="n">
-        <v>901.3723255570255</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y31" t="n">
-        <v>901.3723255570255</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2368.748013620957</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N32" t="n">
-        <v>2915.526830679739</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6774,37 +6774,37 @@
         <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>909.2731541783409</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C34" t="n">
-        <v>740.336971250434</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>740.336971250434</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6871,16 +6871,16 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
         <v>1674.827124689058</v>
@@ -6889,19 +6889,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783409</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W34" t="n">
-        <v>909.2731541783409</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X34" t="n">
-        <v>909.2731541783409</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y34" t="n">
-        <v>909.2731541783409</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="35">
@@ -6914,25 +6914,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
@@ -6941,40 +6941,40 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>3931.363334276589</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4326.137700633767</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089897</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468572</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7047,7 +7047,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>315.8824392759681</v>
+        <v>263.4302928425587</v>
       </c>
       <c r="C37" t="n">
-        <v>148.0131808818041</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>148.0131808818041</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308514</v>
+        <v>141.7293596308511</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152492</v>
+        <v>346.7622353152486</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992668</v>
+        <v>664.367726499266</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834337</v>
+        <v>1009.570464834336</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275724</v>
+        <v>1352.024534275722</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931659</v>
+        <v>1652.399825931656</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100839</v>
+        <v>1886.053019100837</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988875</v>
+        <v>1964.709007988873</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988875</v>
+        <v>1964.709007988873</v>
       </c>
       <c r="S37" t="n">
-        <v>1774.090048349445</v>
+        <v>1774.090048349442</v>
       </c>
       <c r="T37" t="n">
-        <v>1553.390357452714</v>
+        <v>1553.39035745271</v>
       </c>
       <c r="U37" t="n">
-        <v>1265.354415112101</v>
+        <v>1265.354415112096</v>
       </c>
       <c r="V37" t="n">
-        <v>1011.736851439957</v>
+        <v>1011.736851439952</v>
       </c>
       <c r="W37" t="n">
-        <v>723.3866059367392</v>
+        <v>723.3866059367342</v>
       </c>
       <c r="X37" t="n">
-        <v>496.4639795724648</v>
+        <v>496.4639795724594</v>
       </c>
       <c r="Y37" t="n">
-        <v>496.4639795724648</v>
+        <v>276.7383249626719</v>
       </c>
     </row>
     <row r="38">
@@ -7151,13 +7151,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
         <v>850.213983755162</v>
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N38" t="n">
-        <v>2667.236715577531</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906985</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7254,10 +7254,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215057</v>
+        <v>788.5151678215059</v>
       </c>
       <c r="C40" t="n">
-        <v>667.028617841672</v>
+        <v>667.0286178416723</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774099</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430897</v>
+        <v>463.89815074309</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932529</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7336,7 +7336,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,25 +7409,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
         <v>4653.975400188666</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215052</v>
+        <v>788.515167821506</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416724</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774092</v>
+        <v>564.36161137741</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430901</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932531</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7573,7 +7573,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7606,13 +7606,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036725</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,28 +7646,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L44" t="n">
-        <v>1772.421240554552</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M44" t="n">
-        <v>2750.97154338438</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N44" t="n">
-        <v>3297.750360443163</v>
+        <v>2903.481887689699</v>
       </c>
       <c r="O44" t="n">
-        <v>3800.7228313225</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7746,7 +7746,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7755,16 +7755,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
         <v>1346.568408282342</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215055</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416719</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7810,7 +7810,7 @@
         <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7819,37 +7819,37 @@
         <v>1579.322996860149</v>
       </c>
       <c r="O46" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P46" t="n">
         <v>2204.270866719035</v>
       </c>
       <c r="Q46" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R46" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U46" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V46" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142014</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,13 +8538,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,31 +8687,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>338.5992815305711</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>176.2173930448432</v>
       </c>
       <c r="O14" t="n">
-        <v>258.6211785616921</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9173,19 +9173,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>34.13957882093973</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,22 +9407,22 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476829</v>
+        <v>342.317075859813</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,13 +9647,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>79.70465870845044</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>7.630896635344868</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>73.34731650832771</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561032</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>64.28566532692435</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,13 +10598,13 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>80.35488666587528</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>29.61882225792135</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>180.7381496078621</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>251.7982062376315</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>216.9877583263338</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>142.1686942807567</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>25.79859598454257</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>135.6442959783151</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23671,7 +23671,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23896,10 +23896,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>105.0742887270139</v>
+        <v>178.3446460444194</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.14213605696621</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>104.568505434838</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>32.92359802148793</v>
       </c>
       <c r="F25" t="n">
-        <v>70.66335656800729</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>105.0742887270137</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>112.455480897637</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>105.0742887270141</v>
       </c>
       <c r="C31" t="n">
-        <v>155.8219150297613</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>60.6600768186685</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,13 +25135,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>92.48912964370437</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>165.6007730946201</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298068</v>
+        <v>147.5592177298072</v>
       </c>
       <c r="E37" t="n">
-        <v>93.45008238908794</v>
+        <v>145.377707358164</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345257</v>
+        <v>144.364792734526</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706227</v>
+        <v>164.969552970623</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259152</v>
+        <v>143.6987596259156</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143254</v>
+        <v>95.29616512143289</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164178</v>
+        <v>87.87589738164213</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1050065.715760256</v>
+        <v>1050065.715760257</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>990205.9562626188</v>
+        <v>990205.9562626189</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>990205.9562626189</v>
+        <v>990205.9562626188</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>990946.3062123657</v>
+        <v>990946.3062123655</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>431046.9291787486</v>
+      </c>
+      <c r="C2" t="n">
+        <v>431046.9291787488</v>
+      </c>
+      <c r="D2" t="n">
         <v>431046.9291787487</v>
       </c>
-      <c r="C2" t="n">
-        <v>431046.9291787485</v>
-      </c>
-      <c r="D2" t="n">
-        <v>431046.9291787488</v>
-      </c>
       <c r="E2" t="n">
+        <v>416935.8762313327</v>
+      </c>
+      <c r="F2" t="n">
         <v>416935.8762313325</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
+        <v>416935.8762313327</v>
+      </c>
+      <c r="H2" t="n">
+        <v>416935.8762313325</v>
+      </c>
+      <c r="I2" t="n">
         <v>416935.8762313324</v>
       </c>
-      <c r="G2" t="n">
-        <v>416935.8762313325</v>
-      </c>
-      <c r="H2" t="n">
-        <v>416935.8762313324</v>
-      </c>
-      <c r="I2" t="n">
-        <v>416935.8762313325</v>
-      </c>
       <c r="J2" t="n">
-        <v>416935.8762313324</v>
+        <v>416935.8762313326</v>
       </c>
       <c r="K2" t="n">
         <v>416935.8762313324</v>
       </c>
       <c r="L2" t="n">
-        <v>416935.8762313324</v>
+        <v>416935.8762313325</v>
       </c>
       <c r="M2" t="n">
-        <v>417253.1690669383</v>
+        <v>417253.1690669381</v>
       </c>
       <c r="N2" t="n">
+        <v>431046.9291787488</v>
+      </c>
+      <c r="O2" t="n">
+        <v>431046.9291787486</v>
+      </c>
+      <c r="P2" t="n">
         <v>431046.9291787487</v>
-      </c>
-      <c r="O2" t="n">
-        <v>431046.9291787489</v>
-      </c>
-      <c r="P2" t="n">
-        <v>431046.9291787488</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696692</v>
+        <v>130487.3190696689</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.1050641496</v>
+        <v>36735.1050641499</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26427,37 +26427,37 @@
         <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918991</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.0529481146</v>
+        <v>18496.05294811446</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740897</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740901</v>
       </c>
     </row>
     <row r="5">
@@ -26473,34 +26473,34 @@
         <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955461</v>
+        <v>96472.31657955459</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26522,46 +26522,46 @@
         <v>-425128.7149563332</v>
       </c>
       <c r="C6" t="n">
-        <v>164839.1642582111</v>
+        <v>164839.1642582114</v>
       </c>
       <c r="D6" t="n">
-        <v>164839.1642582114</v>
+        <v>164839.1642582113</v>
       </c>
       <c r="E6" t="n">
-        <v>-424973.5483349778</v>
+        <v>-425040.7438252033</v>
       </c>
       <c r="F6" t="n">
-        <v>302403.8656584288</v>
+        <v>302336.6701682031</v>
       </c>
       <c r="G6" t="n">
-        <v>302403.865658429</v>
+        <v>302336.6701682032</v>
       </c>
       <c r="H6" t="n">
-        <v>302403.8656584288</v>
+        <v>302336.6701682031</v>
       </c>
       <c r="I6" t="n">
-        <v>302403.865658429</v>
+        <v>302336.670168203</v>
       </c>
       <c r="J6" t="n">
-        <v>125980.6464658358</v>
+        <v>125913.4509756105</v>
       </c>
       <c r="K6" t="n">
-        <v>302403.8656584288</v>
+        <v>302336.670168203</v>
       </c>
       <c r="L6" t="n">
-        <v>302403.8656584289</v>
+        <v>302336.6701682031</v>
       </c>
       <c r="M6" t="n">
-        <v>171797.4804695999</v>
+        <v>171731.7958976392</v>
       </c>
       <c r="N6" t="n">
-        <v>260373.499803088</v>
+        <v>260373.4998030878</v>
       </c>
       <c r="O6" t="n">
-        <v>297108.6048672378</v>
+        <v>297108.6048672376</v>
       </c>
       <c r="P6" t="n">
-        <v>297108.6048672377</v>
+        <v>297108.6048672376</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26756,7 +26756,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="N2" t="n">
-        <v>45.918881330187</v>
+        <v>45.91888133018738</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>54.96126877750669</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>169.4758852128959</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>11.18263959690384</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27585,16 +27585,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>99.11446396302698</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>30.38987441310725</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>185.5973377951909</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>82.44034681135888</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>171.2340993700033</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>316.1370567708846</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>10.81525101172477</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28059,16 +28059,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>25.16398464933172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-2.120263810372943e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.016181746881682e-12</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-4.050093593832571e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405557</v>
+        <v>1.056255288405193</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.579747595651265e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H23" t="n">
         <v>44.86703772844668</v>
@@ -32707,40 +32707,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32859,43 +32859,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -33515,7 +33515,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33752,7 +33752,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33971,7 +33971,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
@@ -33980,7 +33980,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
         <v>609.6478166837925</v>
@@ -34220,7 +34220,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
         <v>557.708647897025</v>
@@ -34445,7 +34445,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34951,7 +34951,7 @@
         <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116803</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,13 +35258,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>794.1893959229033</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789664</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>728.5192284577547</v>
       </c>
       <c r="O14" t="n">
-        <v>766.6741794499112</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
         <v>347.6333793934838</v>
@@ -35820,7 +35820,7 @@
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451071</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
         <v>78.39423853789366</v>
@@ -35884,7 +35884,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427826</v>
@@ -35893,19 +35893,19 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>93.75277736316451</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306623</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,7 +36054,7 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>661.3366991265652</v>
@@ -36127,22 +36127,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>852.755584535902</v>
+        <v>850.3700767480321</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306623</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>587.7576595966698</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306623</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>463.221011027677</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>264.1343174770403</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36853,7 +36853,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115037</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>572.3386662151435</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37309,7 +37309,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37318,13 +37318,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>331.1491914695948</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37400,7 +37400,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147178</v>
+        <v>46.63467190147142</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327251</v>
+        <v>207.1039148327248</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586037</v>
+        <v>320.8136274586033</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818894</v>
+        <v>348.689634681889</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559456</v>
+        <v>345.9132014559452</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110453</v>
+        <v>303.4093855110449</v>
       </c>
       <c r="P37" t="n">
-        <v>236.013326433516</v>
+        <v>236.0133264335156</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629921</v>
+        <v>79.45049382629885</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>581.9206576708328</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>688.7911504960812</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
@@ -37628,7 +37628,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
         <v>478.3061046004592</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>804.1000416505429</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37868,7 +37868,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
         <v>415.1124034525806</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>672.577872718666</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>650.2216951689758</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
